--- a/kadai_001/請求書_20230520.xlsx
+++ b/kadai_001/請求書_20230520.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,22 +518,30 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
           <t>税込合計</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="n">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="17">
       <c r="E17" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="n">
         <v>38500</v>
       </c>
     </row>
